--- a/discriminacaob.xlsx
+++ b/discriminacaob.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iago\Documents\Unesp\Sociais\2023\1° Semestre\Estatística - Bernardo\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06F76A69-7FAD-4C66-AEA9-8990486DF76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8BCC55-AAAC-4E01-ABD7-EF74823ED542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A577C2DA-A131-4673-BD58-4C0B64AD05B2}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">p4h </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Banheiros públicos e privados</t>
   </si>
@@ -104,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -113,17 +110,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -179,22 +165,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
@@ -202,8 +194,11 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
@@ -215,21 +210,6 @@
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCAAB0E-927B-4565-85FE-3ED1D4FA11E7}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,136 +539,124 @@
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="4">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8">
+        <v>163</v>
+      </c>
+      <c r="C3" s="9">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D3" s="9">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E3" s="9">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="D4" s="9">
+        <v>3.9</v>
+      </c>
+      <c r="E4" s="9">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>470</v>
+      </c>
+      <c r="C5" s="9">
+        <v>58.8</v>
+      </c>
+      <c r="D5" s="9">
+        <v>58.8</v>
+      </c>
+      <c r="E5" s="9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8">
+        <v>88</v>
+      </c>
+      <c r="C6" s="9">
         <v>11</v>
       </c>
+      <c r="D6" s="9">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
-        <v>48</v>
-      </c>
-      <c r="C3" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="D3" s="7">
-        <v>5.9</v>
-      </c>
-      <c r="E3" s="8">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10">
-        <v>163</v>
-      </c>
-      <c r="C4" s="11">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="D4" s="11">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="E4" s="11">
-        <v>26.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10">
-        <v>31</v>
-      </c>
-      <c r="C5" s="11">
-        <v>3.9</v>
-      </c>
-      <c r="D5" s="11">
-        <v>3.9</v>
-      </c>
-      <c r="E5" s="11">
-        <v>30.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10">
-        <v>470</v>
-      </c>
-      <c r="C6" s="11">
-        <v>58.8</v>
-      </c>
-      <c r="D6" s="11">
-        <v>58.8</v>
-      </c>
-      <c r="E6" s="11">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10">
-        <v>88</v>
-      </c>
-      <c r="C7" s="11">
-        <v>11</v>
-      </c>
-      <c r="D7" s="11">
-        <v>11</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="B7" s="13">
+        <v>800</v>
+      </c>
+      <c r="C7" s="14">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="15">
-        <v>800</v>
-      </c>
-      <c r="C8" s="16">
+      <c r="D7" s="14">
         <v>100</v>
       </c>
-      <c r="D8" s="16">
-        <v>100</v>
-      </c>
-      <c r="E8" s="17"/>
+      <c r="E7" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>